--- a/sample-test-project-easyexcel/src/main/resources/excel/demoExcel.xlsx
+++ b/sample-test-project-easyexcel/src/main/resources/excel/demoExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yileichen/Desktop/ownCode/A_open_git/async-excel-center/sample-test-project-easyexcel/src/main/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812CF913-D217-2045-833C-D4EFB470C004}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D6791E-878F-2C4A-8365-E43BD7EC3483}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="820" windowWidth="28240" windowHeight="17440" xr2:uid="{9AC4AB3D-953B-174C-AE69-94DC31F4B1BE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>head1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,6 +112,86 @@
   </si>
   <si>
     <t>head2Value12</t>
+  </si>
+  <si>
+    <t>head4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>head3Value1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>head3Value2</t>
+  </si>
+  <si>
+    <t>head3Value3</t>
+  </si>
+  <si>
+    <t>head3Value4</t>
+  </si>
+  <si>
+    <t>head3Value5</t>
+  </si>
+  <si>
+    <t>head3Value6</t>
+  </si>
+  <si>
+    <t>head3Value7</t>
+  </si>
+  <si>
+    <t>head3Value8</t>
+  </si>
+  <si>
+    <t>head3Value9</t>
+  </si>
+  <si>
+    <t>head3Value10</t>
+  </si>
+  <si>
+    <t>head3Value11</t>
+  </si>
+  <si>
+    <t>head4Value2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>head4Value3</t>
+  </si>
+  <si>
+    <t>head4Value4</t>
+  </si>
+  <si>
+    <t>head4Value5</t>
+  </si>
+  <si>
+    <t>head4Value6</t>
+  </si>
+  <si>
+    <t>head4Value7</t>
+  </si>
+  <si>
+    <t>head4Value8</t>
+  </si>
+  <si>
+    <t>head4Value9</t>
+  </si>
+  <si>
+    <t>head4Value10</t>
+  </si>
+  <si>
+    <t>head4Value11</t>
+  </si>
+  <si>
+    <t>head4Value12</t>
+  </si>
+  <si>
+    <t>head5Value2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>head5Value3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -157,8 +237,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -475,19 +561,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2CBBD0A-151B-F745-9610-F8AB194ACAB4}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -497,8 +586,16 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -506,10 +603,14 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -517,10 +618,16 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -528,10 +635,16 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -539,10 +652,13 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -550,10 +666,13 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -561,10 +680,13 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -572,10 +694,13 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -583,10 +708,13 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -594,10 +722,13 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -605,10 +736,13 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -616,18 +750,28 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
       </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D1:E2"/>
+    <mergeCell ref="F1:F2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sample-test-project-easyexcel/src/main/resources/excel/demoExcel.xlsx
+++ b/sample-test-project-easyexcel/src/main/resources/excel/demoExcel.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yileichen/Desktop/ownCode/A_open_git/async-excel-center/sample-test-project-easyexcel/src/main/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D6791E-878F-2C4A-8365-E43BD7EC3483}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B3B0FB-275F-9A46-BA35-95771F4283C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="820" windowWidth="28240" windowHeight="17440" xr2:uid="{9AC4AB3D-953B-174C-AE69-94DC31F4B1BE}"/>
+    <workbookView xWindow="1000" yWindow="820" windowWidth="28240" windowHeight="17440" activeTab="1" xr2:uid="{9AC4AB3D-953B-174C-AE69-94DC31F4B1BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t>head1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,6 +193,26 @@
   <si>
     <t>head5Value3</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sheet2head1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2value1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2value2</t>
+  </si>
+  <si>
+    <t>2value3</t>
+  </si>
+  <si>
+    <t>2value4</t>
+  </si>
+  <si>
+    <t>2value5</t>
   </si>
 </sst>
 </file>
@@ -242,10 +263,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -563,7 +584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2CBBD0A-151B-F745-9610-F8AB194ACAB4}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -586,14 +607,14 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="2"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
@@ -605,10 +626,10 @@
       <c r="C2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
@@ -775,4 +796,50 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3818909A-F073-D543-A99A-3920F71EC3D7}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>